--- a/results/acl-en/mbert/results_pos.xlsx
+++ b/results/acl-en/mbert/results_pos.xlsx
@@ -19,6 +19,9 @@
     <t>Language</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>German</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>Maltese</t>
-  </si>
-  <si>
-    <t>English</t>
   </si>
   <si>
     <t>Thai</t>
@@ -501,474 +501,474 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.394656092149365</v>
+        <v>0.956737410523672</v>
       </c>
       <c r="C2">
-        <v>0.8569607704291177</v>
+        <v>0.3238101218133869</v>
       </c>
       <c r="D2">
-        <v>0.7284615021479488</v>
+        <v>0.8569006655782996</v>
       </c>
       <c r="E2">
-        <v>0.8181560685455318</v>
+        <v>0.7210850182092177</v>
       </c>
       <c r="F2">
-        <v>0.7734504083463154</v>
+        <v>0.7504709280421952</v>
       </c>
       <c r="G2">
-        <v>0.570835103620828</v>
+        <v>0.7426221273389426</v>
       </c>
       <c r="H2">
-        <v>0.5616296086484445</v>
+        <v>0.5653020218510612</v>
       </c>
       <c r="I2">
-        <v>0.758957654723127</v>
+        <v>0.5668717819917116</v>
       </c>
       <c r="J2">
-        <v>0.6649671906717651</v>
+        <v>0.7754615094813513</v>
       </c>
       <c r="K2">
-        <v>0.586980125572393</v>
+        <v>0.6815898530704508</v>
       </c>
       <c r="L2">
-        <v>0.557805787659916</v>
+        <v>0.5967600150696973</v>
       </c>
       <c r="M2">
-        <v>0.5008733418307133</v>
+        <v>0.5688810749717443</v>
       </c>
       <c r="N2">
-        <v>0.6016145021951564</v>
+        <v>0.5015069697350245</v>
       </c>
       <c r="O2">
-        <v>0.6132275881603172</v>
+        <v>0.6132738917493407</v>
       </c>
       <c r="P2">
-        <v>0.7160930935183873</v>
+        <v>0.6128971493155846</v>
       </c>
       <c r="Q2">
-        <v>0.6437237407354954</v>
+        <v>0.7084641466783875</v>
       </c>
       <c r="R2">
-        <v>0.2239531699948072</v>
+        <v>0.648185357277408</v>
       </c>
       <c r="S2">
-        <v>0.9484492281546523</v>
+        <v>0.2386035413788773</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8981853442305029</v>
+        <v>0.8554390804597701</v>
       </c>
       <c r="C3">
-        <v>0.8397284942512814</v>
+        <v>0.982445977</v>
       </c>
       <c r="D3">
-        <v>0.7610010620122823</v>
+        <v>0.822939464</v>
       </c>
       <c r="E3">
-        <v>0.8408366809807453</v>
+        <v>0.751629119</v>
       </c>
       <c r="F3">
-        <v>0.8144710717089163</v>
+        <v>0.84709272</v>
       </c>
       <c r="G3">
-        <v>0.6014683474165397</v>
+        <v>0.786188506</v>
       </c>
       <c r="H3">
-        <v>0.5479983377199058</v>
+        <v>0.559114176</v>
       </c>
       <c r="I3">
-        <v>0.7337119637992335</v>
+        <v>0.574663602</v>
       </c>
       <c r="J3">
-        <v>0.6829200720321374</v>
+        <v>0.7238620690000001</v>
       </c>
       <c r="K3">
-        <v>0.6089947822874822</v>
+        <v>0.667656705</v>
       </c>
       <c r="L3">
-        <v>0.5997137184282219</v>
+        <v>0.613115709</v>
       </c>
       <c r="M3">
-        <v>0.5631435563559126</v>
+        <v>0.589501916</v>
       </c>
       <c r="N3">
-        <v>0.6265872466177218</v>
+        <v>0.568067433</v>
       </c>
       <c r="O3">
-        <v>0.6205845684997923</v>
+        <v>0.625072797</v>
       </c>
       <c r="P3">
-        <v>0.7214757353280694</v>
+        <v>0.640190038</v>
       </c>
       <c r="Q3">
-        <v>0.6420095119360946</v>
+        <v>0.713131034</v>
       </c>
       <c r="R3">
-        <v>0.4972987948469317</v>
+        <v>0.642516475</v>
       </c>
       <c r="S3">
-        <v>0.8714965138292469</v>
+        <v>0.537970881</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8317615358706635</v>
+        <v>0.8739039033351641</v>
       </c>
       <c r="C4">
-        <v>0.8981138430447962</v>
+        <v>0.844756728</v>
       </c>
       <c r="D4">
-        <v>0.7250757830919502</v>
+        <v>0.988238859</v>
       </c>
       <c r="E4">
-        <v>0.8488127315594476</v>
+        <v>0.777674665</v>
       </c>
       <c r="F4">
-        <v>0.767009093971034</v>
+        <v>0.87651749</v>
       </c>
       <c r="G4">
-        <v>0.5632788817783766</v>
+        <v>0.759095472</v>
       </c>
       <c r="H4">
-        <v>0.5955708992926911</v>
+        <v>0.563549933</v>
       </c>
       <c r="I4">
-        <v>0.7381694173122263</v>
+        <v>0.584685896</v>
       </c>
       <c r="J4">
-        <v>0.60500168406871</v>
+        <v>0.813753527</v>
       </c>
       <c r="K4">
-        <v>0.5506483664533512</v>
+        <v>0.6331319480000001</v>
       </c>
       <c r="L4">
-        <v>0.5133462445267767</v>
+        <v>0.570178595</v>
       </c>
       <c r="M4">
-        <v>0.5322078140788145</v>
+        <v>0.520198481</v>
       </c>
       <c r="N4">
-        <v>0.5505641630178512</v>
+        <v>0.532073256</v>
       </c>
       <c r="O4">
-        <v>0.6405776355675311</v>
+        <v>0.57754588</v>
       </c>
       <c r="P4">
-        <v>0.7221286628494442</v>
+        <v>0.634931157</v>
       </c>
       <c r="Q4">
-        <v>0.6647019198383294</v>
+        <v>0.7232628169999999</v>
       </c>
       <c r="R4">
-        <v>0.5051364095655103</v>
+        <v>0.6829794890000001</v>
       </c>
       <c r="S4">
-        <v>0.8650639946109802</v>
+        <v>0.520577262</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.829290758366595</v>
+        <v>0.8477126189745164</v>
       </c>
       <c r="C5">
-        <v>0.8850936444580902</v>
+        <v>0.829290758</v>
       </c>
       <c r="D5">
-        <v>0.9656892846177464</v>
+        <v>0.885093644</v>
       </c>
       <c r="E5">
-        <v>0.8583819465766043</v>
+        <v>0.965689285</v>
       </c>
       <c r="F5">
-        <v>0.8271415412956709</v>
+        <v>0.858381947</v>
       </c>
       <c r="G5">
-        <v>0.6410807491556647</v>
+        <v>0.827141541</v>
       </c>
       <c r="H5">
-        <v>0.6007829290758366</v>
+        <v>0.641080749</v>
       </c>
       <c r="I5">
-        <v>0.7704175621737795</v>
+        <v>0.600782929</v>
       </c>
       <c r="J5">
-        <v>0.77655818237642</v>
+        <v>0.779321461</v>
       </c>
       <c r="K5">
-        <v>0.723672090881179</v>
+        <v>0.776558182</v>
       </c>
       <c r="L5">
-        <v>0.606002456248081</v>
+        <v>0.723672091</v>
       </c>
       <c r="M5">
-        <v>0.6220448265274793</v>
+        <v>0.606002456</v>
       </c>
       <c r="N5">
-        <v>0.6947344181762358</v>
+        <v>0.622044827</v>
       </c>
       <c r="O5">
-        <v>0.7480810561866749</v>
+        <v>0.694734418</v>
       </c>
       <c r="P5">
-        <v>0.7457783236106846</v>
+        <v>0.748081056</v>
       </c>
       <c r="Q5">
-        <v>0.6424623887012588</v>
+        <v>0.745778324</v>
       </c>
       <c r="R5">
-        <v>0.6727817009517961</v>
+        <v>0.642462389</v>
       </c>
       <c r="S5">
-        <v>0.8477126189745164</v>
+        <v>0.672781701</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8738570379763733</v>
+        <v>0.8955482880598011</v>
       </c>
       <c r="C6">
-        <v>0.8544683975171862</v>
+        <v>0.873857038</v>
       </c>
       <c r="D6">
-        <v>0.7756457318294067</v>
+        <v>0.854468398</v>
       </c>
       <c r="E6">
-        <v>0.9789094306881132</v>
+        <v>0.775645732</v>
       </c>
       <c r="F6">
-        <v>0.7917639991990923</v>
+        <v>0.9789094310000001</v>
       </c>
       <c r="G6">
-        <v>0.6221384235466862</v>
+        <v>0.7917639990000001</v>
       </c>
       <c r="H6">
-        <v>0.5662751117933658</v>
+        <v>0.622138424</v>
       </c>
       <c r="I6">
-        <v>0.8279049589534806</v>
+        <v>0.566275112</v>
       </c>
       <c r="J6">
-        <v>0.7456116932523527</v>
+        <v>0.801241407</v>
       </c>
       <c r="K6">
-        <v>0.6140959754388307</v>
+        <v>0.745611693</v>
       </c>
       <c r="L6">
-        <v>0.5691116598811987</v>
+        <v>0.614095975</v>
       </c>
       <c r="M6">
-        <v>0.5502903290395782</v>
+        <v>0.56911166</v>
       </c>
       <c r="N6">
-        <v>0.5960421811386237</v>
+        <v>0.550290329</v>
       </c>
       <c r="O6">
-        <v>0.6836748314756724</v>
+        <v>0.5960421809999999</v>
       </c>
       <c r="P6">
-        <v>0.7661349529466729</v>
+        <v>0.683674831</v>
       </c>
       <c r="Q6">
-        <v>0.6691250083427885</v>
+        <v>0.766134953</v>
       </c>
       <c r="R6">
-        <v>0.5760194887539211</v>
+        <v>0.669125008</v>
       </c>
       <c r="S6">
-        <v>0.8955482880598011</v>
+        <v>0.576019489</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8044522445963421</v>
+        <v>0.7888416774431923</v>
       </c>
       <c r="C7">
-        <v>0.7745242933678183</v>
+        <v>0.804452245</v>
       </c>
       <c r="D7">
-        <v>0.73766857565121</v>
+        <v>0.774524293</v>
       </c>
       <c r="E7">
-        <v>0.7579900240162571</v>
+        <v>0.737668576</v>
       </c>
       <c r="F7">
-        <v>0.9757990024016258</v>
+        <v>0.757990024</v>
       </c>
       <c r="G7">
-        <v>0.5254018104563088</v>
+        <v>0.975799002</v>
       </c>
       <c r="H7">
-        <v>0.5047108812118973</v>
+        <v>0.52540181</v>
       </c>
       <c r="I7">
-        <v>0.67762793275448</v>
+        <v>0.5047108809999999</v>
       </c>
       <c r="J7">
-        <v>0.6591538887862554</v>
+        <v>0.681045631</v>
       </c>
       <c r="K7">
-        <v>0.5773138740070202</v>
+        <v>0.659153889</v>
       </c>
       <c r="L7">
-        <v>0.5190282652872714</v>
+        <v>0.577313874</v>
       </c>
       <c r="M7">
-        <v>0.5503417698134122</v>
+        <v>0.519028265</v>
       </c>
       <c r="N7">
-        <v>0.6302420099759838</v>
+        <v>0.55034177</v>
       </c>
       <c r="O7">
-        <v>0.6095510807315722</v>
+        <v>0.63024201</v>
       </c>
       <c r="P7">
-        <v>0.6831701459449473</v>
+        <v>0.609551081</v>
       </c>
       <c r="Q7">
-        <v>0.6662663957140218</v>
+        <v>0.683170146</v>
       </c>
       <c r="R7">
-        <v>0.6104747829299834</v>
+        <v>0.666266396</v>
       </c>
       <c r="S7">
-        <v>0.7888416774431923</v>
+        <v>0.610474783</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4849404622927854</v>
+        <v>0.6485181485181485</v>
       </c>
       <c r="C8">
-        <v>0.562456222274107</v>
+        <v>0.5141525139999999</v>
       </c>
       <c r="D8">
-        <v>0.3678262899836563</v>
+        <v>0.567016317</v>
       </c>
       <c r="E8">
-        <v>0.6010273173009573</v>
+        <v>0.402347652</v>
       </c>
       <c r="F8">
-        <v>0.5201494279710484</v>
+        <v>0.622460872</v>
       </c>
       <c r="G8">
-        <v>0.9188419332243755</v>
+        <v>0.521312021</v>
       </c>
       <c r="H8">
-        <v>0.5106700910576698</v>
+        <v>0.949217449</v>
       </c>
       <c r="I8">
-        <v>0.5731496614522531</v>
+        <v>0.54045954</v>
       </c>
       <c r="J8">
-        <v>0.5490077048797571</v>
+        <v>0.593739594</v>
       </c>
       <c r="K8">
-        <v>0.5209432640672426</v>
+        <v>0.582667333</v>
       </c>
       <c r="L8">
-        <v>0.4995563857109503</v>
+        <v>0.562187812</v>
       </c>
       <c r="M8">
-        <v>0.559981321503619</v>
+        <v>0.538295038</v>
       </c>
       <c r="N8">
-        <v>0.4982488909642774</v>
+        <v>0.593822844</v>
       </c>
       <c r="O8">
-        <v>0.4335279010039692</v>
+        <v>0.510572761</v>
       </c>
       <c r="P8">
-        <v>0.5040859210833528</v>
+        <v>0.439227439</v>
       </c>
       <c r="Q8">
-        <v>0.4711650712117674</v>
+        <v>0.532217782</v>
       </c>
       <c r="R8">
-        <v>0.4247490077048798</v>
+        <v>0.491008991</v>
       </c>
       <c r="S8">
-        <v>0.6518795236983422</v>
+        <v>0.423409923</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5406942701798411</v>
+        <v>0.6126306984525304</v>
       </c>
       <c r="C9">
-        <v>0.5872020075282308</v>
+        <v>0.54069427</v>
       </c>
       <c r="D9">
-        <v>0.5648682559598495</v>
+        <v>0.587202008</v>
       </c>
       <c r="E9">
-        <v>0.5613550815558344</v>
+        <v>0.564868256</v>
       </c>
       <c r="F9">
-        <v>0.5371810957758261</v>
+        <v>0.5613550819999999</v>
       </c>
       <c r="G9">
-        <v>0.5622751986616479</v>
+        <v>0.537181096</v>
       </c>
       <c r="H9">
-        <v>0.8945211208699289</v>
+        <v>0.562275199</v>
       </c>
       <c r="I9">
-        <v>0.6282726892513593</v>
+        <v>0.894521121</v>
       </c>
       <c r="J9">
-        <v>0.550564617314931</v>
+        <v>0.627101631</v>
       </c>
       <c r="K9">
-        <v>0.5733166039314095</v>
+        <v>0.550564617</v>
       </c>
       <c r="L9">
-        <v>0.5038895859473024</v>
+        <v>0.573316604</v>
       </c>
       <c r="M9">
-        <v>0.5169385194479298</v>
+        <v>0.503889586</v>
       </c>
       <c r="N9">
-        <v>0.5553324968632372</v>
+        <v>0.516938519</v>
       </c>
       <c r="O9">
-        <v>0.5375993308239231</v>
+        <v>0.555332497</v>
       </c>
       <c r="P9">
-        <v>0.5989125888749477</v>
+        <v>0.537599331</v>
       </c>
       <c r="Q9">
-        <v>0.551401087411125</v>
+        <v>0.598912589</v>
       </c>
       <c r="R9">
-        <v>0.4996235884567127</v>
+        <v>0.551401087</v>
       </c>
       <c r="S9">
-        <v>0.6126306984525304</v>
+        <v>0.499623588</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -976,58 +976,58 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.3516709972224711</v>
+        <v>0.4822596541528537</v>
       </c>
       <c r="C10">
-        <v>0.4116566615894633</v>
+        <v>0.351670997</v>
       </c>
       <c r="D10">
-        <v>0.444270226682197</v>
+        <v>0.411656662</v>
       </c>
       <c r="E10">
-        <v>0.3193262252486336</v>
+        <v>0.444270227</v>
       </c>
       <c r="F10">
-        <v>0.4361616342621629</v>
+        <v>0.319326225</v>
       </c>
       <c r="G10">
-        <v>0.463981722067915</v>
+        <v>0.436161634</v>
       </c>
       <c r="H10">
-        <v>0.5140220410357494</v>
+        <v>0.463981722</v>
       </c>
       <c r="I10">
-        <v>0.557476928590628</v>
+        <v>0.514022041</v>
       </c>
       <c r="J10">
-        <v>0.4663112624316818</v>
+        <v>0.388585252</v>
       </c>
       <c r="K10">
-        <v>0.4727622972851895</v>
+        <v>0.466311262</v>
       </c>
       <c r="L10">
-        <v>0.3951258847773497</v>
+        <v>0.472762297</v>
       </c>
       <c r="M10">
-        <v>0.4317713466535257</v>
+        <v>0.395125885</v>
       </c>
       <c r="N10">
-        <v>0.4454349968640803</v>
+        <v>0.431771347</v>
       </c>
       <c r="O10">
-        <v>0.4371920078845982</v>
+        <v>0.445434997</v>
       </c>
       <c r="P10">
-        <v>0.5891497177672251</v>
+        <v>0.437192008</v>
       </c>
       <c r="Q10">
-        <v>0.508601379804677</v>
+        <v>0.589149718</v>
       </c>
       <c r="R10">
-        <v>0.4043544485261177</v>
+        <v>0.50860138</v>
       </c>
       <c r="S10">
-        <v>0.4822596541528537</v>
+        <v>0.404354449</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1035,648 +1035,648 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.3482540594913062</v>
+        <v>0.5773818077309958</v>
       </c>
       <c r="C11">
-        <v>0.4640034487713752</v>
+        <v>0.348254059</v>
       </c>
       <c r="D11">
-        <v>0.3678689466877425</v>
+        <v>0.464003449</v>
       </c>
       <c r="E11">
-        <v>0.3974709009915218</v>
+        <v>0.367868947</v>
       </c>
       <c r="F11">
-        <v>0.4539445322603822</v>
+        <v>0.397470901</v>
       </c>
       <c r="G11">
-        <v>0.7048426498060066</v>
+        <v>0.453944532</v>
       </c>
       <c r="H11">
-        <v>0.4969104756430522</v>
+        <v>0.70484265</v>
       </c>
       <c r="I11">
-        <v>0.5056761028883461</v>
+        <v>0.496910476</v>
       </c>
       <c r="J11">
-        <v>0.4655841356516741</v>
+        <v>0.492527662</v>
       </c>
       <c r="K11">
-        <v>0.4347607414858456</v>
+        <v>0.465584136</v>
       </c>
       <c r="L11">
-        <v>0.4813191550510131</v>
+        <v>0.434760741</v>
       </c>
       <c r="M11">
-        <v>0.4855582698663601</v>
+        <v>0.481319155</v>
       </c>
       <c r="N11">
-        <v>0.450064664463285</v>
+        <v>0.48555827</v>
       </c>
       <c r="O11">
-        <v>0.3494036499497054</v>
+        <v>0.450064664</v>
       </c>
       <c r="P11">
-        <v>0.4863486133065096</v>
+        <v>0.34940365</v>
       </c>
       <c r="Q11">
-        <v>0.4605546773961776</v>
+        <v>0.486348613</v>
       </c>
       <c r="R11">
-        <v>0.4019974134214686</v>
+        <v>0.460554677</v>
       </c>
       <c r="S11">
-        <v>0.5773818077309958</v>
+        <v>0.401997413</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.7453400503778338</v>
+        <v>0.8256366723259763</v>
       </c>
       <c r="C12">
-        <v>0.8025188916876574</v>
+        <v>0.73811545</v>
       </c>
       <c r="D12">
-        <v>0.7477581863979849</v>
+        <v>0.820288625</v>
       </c>
       <c r="E12">
-        <v>0.8038790931989924</v>
+        <v>0.750169779</v>
       </c>
       <c r="F12">
-        <v>0.7140050377833753</v>
+        <v>0.8225806450000001</v>
       </c>
       <c r="G12">
-        <v>0.6330982367758187</v>
+        <v>0.664601019</v>
       </c>
       <c r="H12">
-        <v>0.5950629722921914</v>
+        <v>0.628947368</v>
       </c>
       <c r="I12">
-        <v>0.9049874055415618</v>
+        <v>0.580730051</v>
       </c>
       <c r="J12">
-        <v>0.7392443324937028</v>
+        <v>0.927589134</v>
       </c>
       <c r="K12">
-        <v>0.6463476070528967</v>
+        <v>0.729881154</v>
       </c>
       <c r="L12">
-        <v>0.5987405541561713</v>
+        <v>0.667996604</v>
       </c>
       <c r="M12">
-        <v>0.5791435768261964</v>
+        <v>0.599235993</v>
       </c>
       <c r="N12">
-        <v>0.6411586901763224</v>
+        <v>0.579541596</v>
       </c>
       <c r="O12">
-        <v>0.6859949622166247</v>
+        <v>0.638794567</v>
       </c>
       <c r="P12">
-        <v>0.7662468513853904</v>
+        <v>0.615534805</v>
       </c>
       <c r="Q12">
-        <v>0.6704785894206549</v>
+        <v>0.734380306</v>
       </c>
       <c r="R12">
-        <v>0.5644836272040302</v>
+        <v>0.66672326</v>
       </c>
       <c r="S12">
-        <v>0.8282115869017632</v>
+        <v>0.579117148</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.7825317575680971</v>
+        <v>0.8438890466723469</v>
       </c>
       <c r="C13">
-        <v>0.8485748593819125</v>
+        <v>0.740130645</v>
       </c>
       <c r="D13">
-        <v>0.7685647475194337</v>
+        <v>0.817807441</v>
       </c>
       <c r="E13">
-        <v>0.8394741831511091</v>
+        <v>0.739136609</v>
       </c>
       <c r="F13">
-        <v>0.7858813120141566</v>
+        <v>0.787418347</v>
       </c>
       <c r="G13">
-        <v>0.6468432029324401</v>
+        <v>0.788459718</v>
       </c>
       <c r="H13">
-        <v>0.571193831763888</v>
+        <v>0.633674146</v>
       </c>
       <c r="I13">
-        <v>0.7932756114516842</v>
+        <v>0.585865758</v>
       </c>
       <c r="J13">
-        <v>0.9734563609934905</v>
+        <v>0.756745243</v>
       </c>
       <c r="K13">
-        <v>0.7702079251722177</v>
+        <v>0.9651614120000001</v>
       </c>
       <c r="L13">
-        <v>0.6453896227011313</v>
+        <v>0.749692322</v>
       </c>
       <c r="M13">
-        <v>0.680022751690577</v>
+        <v>0.636135568</v>
       </c>
       <c r="N13">
-        <v>0.7652151930733742</v>
+        <v>0.661696488</v>
       </c>
       <c r="O13">
-        <v>0.6453896227011313</v>
+        <v>0.734024425</v>
       </c>
       <c r="P13">
-        <v>0.7918852303608671</v>
+        <v>0.636324908</v>
       </c>
       <c r="Q13">
-        <v>0.6664349364848638</v>
+        <v>0.789453754</v>
       </c>
       <c r="R13">
-        <v>0.6364153447513113</v>
+        <v>0.6491527030000001</v>
       </c>
       <c r="S13">
-        <v>0.8719585413638374</v>
+        <v>0.623165767</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.6565192418150488</v>
+        <v>0.6954951998030688</v>
       </c>
       <c r="C14">
-        <v>0.6682940838598507</v>
+        <v>0.656519242</v>
       </c>
       <c r="D14">
-        <v>0.6449905637154345</v>
+        <v>0.668294084</v>
       </c>
       <c r="E14">
-        <v>0.6432263887749241</v>
+        <v>0.644990564</v>
       </c>
       <c r="F14">
-        <v>0.6327644211044555</v>
+        <v>0.643226389</v>
       </c>
       <c r="G14">
-        <v>0.5720439812915402</v>
+        <v>0.632764421</v>
       </c>
       <c r="H14">
-        <v>0.5607614671371133</v>
+        <v>0.572043981</v>
       </c>
       <c r="I14">
-        <v>0.6942643800771313</v>
+        <v>0.560761467</v>
       </c>
       <c r="J14">
-        <v>0.7055468942315583</v>
+        <v>0.6954952</v>
       </c>
       <c r="K14">
-        <v>0.9481414622138344</v>
+        <v>0.705546894</v>
       </c>
       <c r="L14">
-        <v>0.6275539509313203</v>
+        <v>0.948141462</v>
       </c>
       <c r="M14">
-        <v>0.6913104127348815</v>
+        <v>0.627553951</v>
       </c>
       <c r="N14">
-        <v>0.6776483137769754</v>
+        <v>0.691310413</v>
       </c>
       <c r="O14">
-        <v>0.5816443751538525</v>
+        <v>0.677648314</v>
       </c>
       <c r="P14">
-        <v>0.7034545006974645</v>
+        <v>0.581644375</v>
       </c>
       <c r="Q14">
-        <v>0.628169360794289</v>
+        <v>0.703454501</v>
       </c>
       <c r="R14">
-        <v>0.5897677853450398</v>
+        <v>0.628169361</v>
       </c>
       <c r="S14">
-        <v>0.6954951998030688</v>
+        <v>0.589767785</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0.5504124656278644</v>
+        <v>0.5883099485299302</v>
       </c>
       <c r="C15">
-        <v>0.565853486568427</v>
+        <v>0.550412466</v>
       </c>
       <c r="D15">
-        <v>0.5163223577522386</v>
+        <v>0.565853487</v>
       </c>
       <c r="E15">
-        <v>0.556581823309596</v>
+        <v>0.516322358</v>
       </c>
       <c r="F15">
-        <v>0.5499189170133258</v>
+        <v>0.556581823</v>
       </c>
       <c r="G15">
-        <v>0.467531551857858</v>
+        <v>0.549918917</v>
       </c>
       <c r="H15">
-        <v>0.484206444334767</v>
+        <v>0.467531552</v>
       </c>
       <c r="I15">
-        <v>0.5435380384967919</v>
+        <v>0.484206444</v>
       </c>
       <c r="J15">
-        <v>0.5782979623492914</v>
+        <v>0.568638511</v>
       </c>
       <c r="K15">
-        <v>0.571494042163153</v>
+        <v>0.5782979620000001</v>
       </c>
       <c r="L15">
-        <v>0.9524430656419657</v>
+        <v>0.571494042</v>
       </c>
       <c r="M15">
-        <v>0.4936896284284002</v>
+        <v>0.9524430659999999</v>
       </c>
       <c r="N15">
-        <v>0.5566170767820631</v>
+        <v>0.493689628</v>
       </c>
       <c r="O15">
-        <v>0.4608686455615878</v>
+        <v>0.556617077</v>
       </c>
       <c r="P15">
-        <v>0.5665585560177677</v>
+        <v>0.460868646</v>
       </c>
       <c r="Q15">
-        <v>0.483289854050624</v>
+        <v>0.566558556</v>
       </c>
       <c r="R15">
-        <v>0.4782486074878375</v>
+        <v>0.483289854</v>
       </c>
       <c r="S15">
-        <v>0.5883099485299302</v>
+        <v>0.478248607</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0.4023289774216497</v>
+        <v>0.4776737762774282</v>
       </c>
       <c r="C16">
-        <v>0.5032762946044108</v>
+        <v>0.345864662</v>
       </c>
       <c r="D16">
-        <v>0.3463885872617666</v>
+        <v>0.487570968</v>
       </c>
       <c r="E16">
-        <v>0.4327704347174898</v>
+        <v>0.310725794</v>
       </c>
       <c r="F16">
-        <v>0.3803497210469166</v>
+        <v>0.355148074</v>
       </c>
       <c r="G16">
-        <v>0.5187029617703224</v>
+        <v>0.367270216</v>
       </c>
       <c r="H16">
-        <v>0.4326581046167671</v>
+        <v>0.479745282</v>
       </c>
       <c r="I16">
-        <v>0.4411577489047815</v>
+        <v>0.447828756</v>
       </c>
       <c r="J16">
-        <v>0.4828696596397948</v>
+        <v>0.437547952</v>
       </c>
       <c r="K16">
-        <v>0.5024899838993522</v>
+        <v>0.468620531</v>
       </c>
       <c r="L16">
-        <v>0.4829445463736099</v>
+        <v>0.504910235</v>
       </c>
       <c r="M16">
-        <v>0.9275470850338863</v>
+        <v>0.479668559</v>
       </c>
       <c r="N16">
-        <v>0.5418804058860973</v>
+        <v>0.970385147</v>
       </c>
       <c r="O16">
-        <v>0.3736099150035571</v>
+        <v>0.518796992</v>
       </c>
       <c r="P16">
-        <v>0.4884112779421125</v>
+        <v>0.37755102</v>
       </c>
       <c r="Q16">
-        <v>0.4594675553225746</v>
+        <v>0.482584011</v>
       </c>
       <c r="R16">
-        <v>0.3671322125285505</v>
+        <v>0.450283873</v>
       </c>
       <c r="S16">
-        <v>0.4942898865465983</v>
+        <v>0.360902256</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>0.605129705480788</v>
+        <v>0.7035303296274624</v>
       </c>
       <c r="C17">
-        <v>0.655061439438268</v>
+        <v>0.605129705</v>
       </c>
       <c r="D17">
-        <v>0.6150770431051297</v>
+        <v>0.655061439</v>
       </c>
       <c r="E17">
-        <v>0.6090306221962161</v>
+        <v>0.615077043</v>
       </c>
       <c r="F17">
-        <v>0.6302906182952994</v>
+        <v>0.609030622</v>
       </c>
       <c r="G17">
-        <v>0.6277550224302711</v>
+        <v>0.630290618</v>
       </c>
       <c r="H17">
-        <v>0.6203432806709577</v>
+        <v>0.627755022</v>
       </c>
       <c r="I17">
-        <v>0.6715428125609518</v>
+        <v>0.620343281</v>
       </c>
       <c r="J17">
-        <v>0.6914374878096352</v>
+        <v>0.676223913</v>
       </c>
       <c r="K17">
-        <v>0.6979715233079774</v>
+        <v>0.691437488</v>
       </c>
       <c r="L17">
-        <v>0.5769455822118198</v>
+        <v>0.697971523</v>
       </c>
       <c r="M17">
-        <v>0.6303881412131851</v>
+        <v>0.576945582</v>
       </c>
       <c r="N17">
-        <v>0.941876340940121</v>
+        <v>0.630388141</v>
       </c>
       <c r="O17">
-        <v>0.5473961380924517</v>
+        <v>0.941876341</v>
       </c>
       <c r="P17">
-        <v>0.6609128145114102</v>
+        <v>0.547396138</v>
       </c>
       <c r="Q17">
-        <v>0.6403354788375268</v>
+        <v>0.660912815</v>
       </c>
       <c r="R17">
-        <v>0.5786034718158767</v>
+        <v>0.640335479</v>
       </c>
       <c r="S17">
-        <v>0.7035303296274624</v>
+        <v>0.578603472</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.6261357378854625</v>
+        <v>0.6030424008810573</v>
       </c>
       <c r="C18">
-        <v>0.6510187224669604</v>
+        <v>0.626135738</v>
       </c>
       <c r="D18">
-        <v>0.6603111233480177</v>
+        <v>0.651018722</v>
       </c>
       <c r="E18">
-        <v>0.6542194383259912</v>
+        <v>0.6603111230000001</v>
       </c>
       <c r="F18">
-        <v>0.662961178414097</v>
+        <v>0.654219438</v>
       </c>
       <c r="G18">
-        <v>0.4665129405286343</v>
+        <v>0.662961178</v>
       </c>
       <c r="H18">
-        <v>0.5424008810572687</v>
+        <v>0.466512941</v>
       </c>
       <c r="I18">
-        <v>0.6717373348017621</v>
+        <v>0.5424008809999999</v>
       </c>
       <c r="J18">
-        <v>0.5567524779735683</v>
+        <v>0.652636289</v>
       </c>
       <c r="K18">
-        <v>0.5299765969162996</v>
+        <v>0.5567524780000001</v>
       </c>
       <c r="L18">
-        <v>0.4578400330396476</v>
+        <v>0.529976597</v>
       </c>
       <c r="M18">
-        <v>0.4740501101321586</v>
+        <v>0.457840033</v>
       </c>
       <c r="N18">
-        <v>0.5228180066079295</v>
+        <v>0.47405011</v>
       </c>
       <c r="O18">
-        <v>0.9678207599118943</v>
+        <v>0.522818007</v>
       </c>
       <c r="P18">
-        <v>0.7954983480176211</v>
+        <v>0.9678207599999999</v>
       </c>
       <c r="Q18">
-        <v>0.6192868942731278</v>
+        <v>0.795498348</v>
       </c>
       <c r="R18">
-        <v>0.5195140418502202</v>
+        <v>0.619286894</v>
       </c>
       <c r="S18">
-        <v>0.6030424008810573</v>
+        <v>0.519514042</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.559291801545881</v>
+        <v>0.6258175331968026</v>
       </c>
       <c r="C19">
-        <v>0.6430600515293652</v>
+        <v>0.5592918019999999</v>
       </c>
       <c r="D19">
-        <v>0.5401995111316641</v>
+        <v>0.643060052</v>
       </c>
       <c r="E19">
-        <v>0.5496465614058268</v>
+        <v>0.540199511</v>
       </c>
       <c r="F19">
-        <v>0.5993922177445993</v>
+        <v>0.549646561</v>
       </c>
       <c r="G19">
-        <v>0.4410385148972716</v>
+        <v>0.599392218</v>
       </c>
       <c r="H19">
-        <v>0.469709982162912</v>
+        <v>0.441038515</v>
       </c>
       <c r="I19">
-        <v>0.616898989231684</v>
+        <v>0.469709982</v>
       </c>
       <c r="J19">
-        <v>0.4909823611019357</v>
+        <v>0.570456497</v>
       </c>
       <c r="K19">
-        <v>0.4625751469908172</v>
+        <v>0.490982361</v>
       </c>
       <c r="L19">
-        <v>0.4131598070951972</v>
+        <v>0.462575147</v>
       </c>
       <c r="M19">
-        <v>0.4547136156437868</v>
+        <v>0.413159807</v>
       </c>
       <c r="N19">
-        <v>0.4656140582678206</v>
+        <v>0.454713616</v>
       </c>
       <c r="O19">
-        <v>0.6397568870978397</v>
+        <v>0.465614058</v>
       </c>
       <c r="P19">
-        <v>0.9672986721278986</v>
+        <v>0.639756887</v>
       </c>
       <c r="Q19">
-        <v>0.5848582942458875</v>
+        <v>0.967298672</v>
       </c>
       <c r="R19">
-        <v>0.5290348153531083</v>
+        <v>0.584858294</v>
       </c>
       <c r="S19">
-        <v>0.6258175331968026</v>
+        <v>0.529034815</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>0.2118071203244705</v>
+        <v>0.3560162235241099</v>
       </c>
       <c r="C20">
-        <v>0.3433979269941415</v>
+        <v>0.21180712</v>
       </c>
       <c r="D20">
-        <v>0.3249211356466877</v>
+        <v>0.343397927</v>
       </c>
       <c r="E20">
-        <v>0.1825146462370437</v>
+        <v>0.324921136</v>
       </c>
       <c r="F20">
-        <v>0.2947273546642632</v>
+        <v>0.182514646</v>
       </c>
       <c r="G20">
-        <v>0.2609283461018477</v>
+        <v>0.294727355</v>
       </c>
       <c r="H20">
-        <v>0.3258224425416855</v>
+        <v>0.260928346</v>
       </c>
       <c r="I20">
-        <v>0.3668319062640829</v>
+        <v>0.325822443</v>
       </c>
       <c r="J20">
-        <v>0.3091482649842272</v>
+        <v>0.332582244</v>
       </c>
       <c r="K20">
-        <v>0.2690401081568274</v>
+        <v>0.309148265</v>
       </c>
       <c r="L20">
-        <v>0.288418206399279</v>
+        <v>0.269040108</v>
       </c>
       <c r="M20">
-        <v>0.2947273546642632</v>
+        <v>0.288418206</v>
       </c>
       <c r="N20">
-        <v>0.281207751239297</v>
+        <v>0.294727355</v>
       </c>
       <c r="O20">
-        <v>0.2893195132942767</v>
+        <v>0.281207751</v>
       </c>
       <c r="P20">
-        <v>0.3560162235241099</v>
+        <v>0.289319513</v>
       </c>
       <c r="Q20">
-        <v>0.821991888237945</v>
+        <v>0.356016224</v>
       </c>
       <c r="R20">
-        <v>0.3600721045515998</v>
+        <v>0.821991888</v>
       </c>
       <c r="S20">
-        <v>0.3560162235241099</v>
+        <v>0.360072105</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>0.1608416869863632</v>
+        <v>0.2721033143682832</v>
       </c>
       <c r="C21">
-        <v>0.3312562087961708</v>
+        <v>0.160841687</v>
       </c>
       <c r="D21">
-        <v>0.2509708299467173</v>
+        <v>0.331256209</v>
       </c>
       <c r="E21">
-        <v>0.1302266775038382</v>
+        <v>0.25097083</v>
       </c>
       <c r="F21">
-        <v>0.2629820283572654</v>
+        <v>0.130226678</v>
       </c>
       <c r="G21">
-        <v>0.1911857671814323</v>
+        <v>0.262982028</v>
       </c>
       <c r="H21">
-        <v>0.31987717872302</v>
+        <v>0.191185767</v>
       </c>
       <c r="I21">
-        <v>0.3283662963966405</v>
+        <v>0.319877179</v>
       </c>
       <c r="J21">
-        <v>0.3204190372979319</v>
+        <v>0.312742707</v>
       </c>
       <c r="K21">
-        <v>0.3256570035220807</v>
+        <v>0.320419037</v>
       </c>
       <c r="L21">
-        <v>0.3105752731870315</v>
+        <v>0.325657004</v>
       </c>
       <c r="M21">
-        <v>0.3010927481260725</v>
+        <v>0.310575273</v>
       </c>
       <c r="N21">
-        <v>0.287636593515759</v>
+        <v>0.301092748</v>
       </c>
       <c r="O21">
-        <v>0.1903729793190644</v>
+        <v>0.287636594</v>
       </c>
       <c r="P21">
-        <v>0.332972094283392</v>
+        <v>0.190372979</v>
       </c>
       <c r="Q21">
-        <v>0.3800234805382462</v>
+        <v>0.332972094</v>
       </c>
       <c r="R21">
-        <v>0.9293777657364761</v>
+        <v>0.380023481</v>
       </c>
       <c r="S21">
-        <v>0.2721033143682832</v>
+        <v>0.929377766</v>
       </c>
     </row>
   </sheetData>
